--- a/xlsx/政治社会学_intext.xlsx
+++ b/xlsx/政治社会学_intext.xlsx
@@ -29,7 +29,7 @@
     <t>社会学</t>
   </si>
   <si>
-    <t>政策_政策_政治學_政治社会学</t>
+    <t>政策_政策_政治学_政治社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6%E7%90%86%E8%AE%BA</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>社會學史</t>
+    <t>社会学史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E8%AF%81%E4%B8%BB%E4%B9%89</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E8%88%87%E8%83%BD%E5%8B%95%E6%80%A7</t>
   </si>
   <si>
-    <t>結構與能動性</t>
+    <t>结构与能动性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%B0%83%E6%9F%A5</t>
@@ -113,25 +113,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算社會學</t>
+    <t>计算社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%AA%8C</t>
   </si>
   <si>
-    <t>民族誌</t>
+    <t>民族志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>社會變遷</t>
+    <t>社会变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>都市社會學</t>
+    <t>都市社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%98%B6%E5%B1%82</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪學</t>
+    <t>犯罪学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E8%BB%8C%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>越軌社會學</t>
+    <t>越轨社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%8C%96</t>
   </si>
   <si>
-    <t>社會化</t>
+    <t>社会化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%8D%E5%B9%B3%E7%AD%89</t>
   </si>
   <si>
-    <t>社會不平等</t>
+    <t>社会不平等</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業社會學</t>
+    <t>工业社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>網際網路社會學</t>
+    <t>网际网路社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>社會運動</t>
+    <t>社会运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Organizational_theory</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>鄉村社會學</t>
+    <t>乡村社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E9%AB%94</t>
   </si>
   <si>
-    <t>群體</t>
+    <t>群体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E5%8C%96</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>社會企業</t>
+    <t>社会企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -359,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟地理學</t>
+    <t>经济地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%80%9D%E6%83%B3%E5%8F%B2</t>
   </si>
   <si>
-    <t>經濟思想史</t>
+    <t>经济思想史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會人類學</t>
+    <t>社会人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%94%9F%E7%89%A9%E5%AD%A6</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會地理學</t>
+    <t>社会地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%AF%AD%E8%A8%80%E5%AD%A6</t>
@@ -413,19 +413,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>媒體研究</t>
+    <t>媒体研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會哲學</t>
+    <t>社会哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會統計學</t>
+    <t>社会统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%BB%9F%E7%A7%91%E5%AD%A6</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>世界體系理論</t>
+    <t>世界体系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E4%BC%AF</t>
   </si>
   <si>
-    <t>韋伯</t>
+    <t>韦伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%AD%90</t>
@@ -503,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81%E8%80%85</t>
   </si>
   <si>
-    <t>獨裁者</t>
+    <t>独裁者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A7%91%E5%AD%A6</t>
